--- a/data/outputs/management_elsevier/59.xlsx
+++ b/data/outputs/management_elsevier/59.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS26"/>
+  <dimension ref="A1:BU26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -933,6 +943,12 @@
           <t>2-s2.0-84946567933</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>930</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1138,6 +1154,12 @@
           <t>2-s2.0-84970004166</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>1359</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1343,6 +1365,12 @@
           <t>2-s2.0-84941961386</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>1211</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1558,6 +1586,12 @@
           <t>2-s2.0-84942779968</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>15043</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1770,6 +1804,12 @@
         <is>
           <t>2-s2.0-84947554662</t>
         </is>
+      </c>
+      <c r="BT6" t="n">
+        <v>1523</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1956,6 +1996,12 @@
           <t>2-s2.0-84942103205</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>749</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2173,6 +2219,12 @@
           <t>2-s2.0-84942194865</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>1038</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2386,6 +2438,12 @@
           <t>2-s2.0-84942197385</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>494</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2602,6 +2660,12 @@
         <is>
           <t>2-s2.0-84942198518</t>
         </is>
+      </c>
+      <c r="BT10" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -2812,6 +2876,12 @@
           <t>2-s2.0-84942193636</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>756</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3020,6 +3090,12 @@
         <is>
           <t>2-s2.0-84942193779</t>
         </is>
+      </c>
+      <c r="BT12" t="n">
+        <v>3282</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -3226,6 +3302,12 @@
           <t>2-s2.0-84942196403</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>2465</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3449,6 +3531,12 @@
           <t>2-s2.0-84942198013</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>1864</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3661,6 +3749,12 @@
         <is>
           <t>2-s2.0-84942196925</t>
         </is>
+      </c>
+      <c r="BT15" t="n">
+        <v>1253</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -3877,6 +3971,12 @@
           <t>2-s2.0-84928522204</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>4033</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4098,6 +4198,12 @@
           <t>2-s2.0-84929176225</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>578</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4307,6 +4413,12 @@
           <t>2-s2.0-84929334989</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>1515</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4522,6 +4634,12 @@
           <t>2-s2.0-84929329603</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>864</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4729,6 +4847,12 @@
           <t>2-s2.0-84929412791</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>3026</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4942,6 +5066,12 @@
           <t>2-s2.0-84929485442</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>675</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5155,6 +5285,12 @@
           <t>2-s2.0-84929472351</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>559</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5370,6 +5506,12 @@
           <t>2-s2.0-84916936465</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>1526</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5575,6 +5717,12 @@
           <t>2-s2.0-84920954977</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>1810</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5784,6 +5932,12 @@
           <t>2-s2.0-84921966808</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>1155</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5997,6 +6151,12 @@
           <t>2-s2.0-84923284930</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>1455</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
